--- a/th_UNet rewrites/savedstatistics/500epoch30firstImgLr1e-4AdamCrossEntro.xlsx
+++ b/th_UNet rewrites/savedstatistics/500epoch30firstImgLr1e-4AdamCrossEntro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Dev/EPFL MA1/Machine Learning/cs-433-project-2-ml_fools/th_UNet rewrites/savedstatistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D310412A-CCE9-6B43-AFB9-2D75226B5343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A457B2-2778-004C-9F3A-14E90DF8CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="9820" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="1800" yWindow="860" windowWidth="26000" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500epoch30firstImgLr1e-4AdamCro" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>TP</t>
   </si>
   <si>
-    <t>FN</t>
+    <t>TN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -868,11 +868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/th_UNet rewrites/savedstatistics/500epoch30firstImgLr1e-4AdamCrossEntro.xlsx
+++ b/th_UNet rewrites/savedstatistics/500epoch30firstImgLr1e-4AdamCrossEntro.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theophanemayaud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A457B2-2778-004C-9F3A-14E90DF8CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3722B0-83F3-A14F-B4A1-9F9E54B8CDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="860" windowWidth="26000" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="500epoch30firstImgLr1e-4AdamCro" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -896,7 +896,7 @@
         <v>0.80586167829646904</v>
       </c>
       <c r="C2">
-        <v>0.19413832170352999</v>
+        <v>0.99536637392898597</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>0.85795168595873095</v>
       </c>
       <c r="C3">
-        <v>0.142048314041268</v>
+        <v>0.99423072684970903</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>0.83931022578762604</v>
       </c>
       <c r="C4">
-        <v>0.16068977421237299</v>
+        <v>0.99544718128060805</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>0.854938051413759</v>
       </c>
       <c r="C5">
-        <v>0.14506194858624</v>
+        <v>0.99499192935630298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>0.87268866214326402</v>
       </c>
       <c r="C6">
-        <v>0.12731133785673501</v>
+        <v>0.993545968303025</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>0.871525855387</v>
       </c>
       <c r="C7">
-        <v>0.128474144612999</v>
+        <v>0.99114795451535698</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
         <v>0.86122575319851402</v>
       </c>
       <c r="C8">
-        <v>0.13877424680148501</v>
+        <v>0.99803356181472203</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>0.87624930594114303</v>
       </c>
       <c r="C9">
-        <v>0.123750694058856</v>
+        <v>0.99829708855524202</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
         <v>0.78206861041385001</v>
       </c>
       <c r="C10">
-        <v>0.21793138958614899</v>
+        <v>0.99894851578314603</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>0.81379100850546704</v>
       </c>
       <c r="C11">
-        <v>0.18620899149453199</v>
+        <v>0.99859194844832699</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>0.88496993987975903</v>
       </c>
       <c r="C12">
-        <v>0.11503006012024</v>
+        <v>0.99687171498410498</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>0.90298464380556498</v>
       </c>
       <c r="C13">
-        <v>9.7015356194434799E-2</v>
+        <v>0.99592523841645098</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>0.89634748272457998</v>
       </c>
       <c r="C14">
-        <v>0.10365251727541901</v>
+        <v>0.99726632474378596</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>0.87306385373887296</v>
       </c>
       <c r="C15">
-        <v>0.12693614626112601</v>
+        <v>0.99604167234598595</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>0.87323679647593599</v>
       </c>
       <c r="C16">
-        <v>0.12676320352406301</v>
+        <v>0.996523395789495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1061,7 +1061,7 @@
         <v>3.12822822027388E-2</v>
       </c>
       <c r="C17">
-        <v>0.96871771779726101</v>
+        <v>0.98735678618372003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>0.86186518290681002</v>
       </c>
       <c r="C18">
-        <v>0.13813481709319</v>
+        <v>0.99201756626002502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>0.83254040439375898</v>
       </c>
       <c r="C19">
-        <v>0.16745959560623999</v>
+        <v>0.99484083940844203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>0.87865515908798097</v>
       </c>
       <c r="C20">
-        <v>0.121344840912018</v>
+        <v>0.99487858794699502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>0.85928587139819601</v>
       </c>
       <c r="C21">
-        <v>0.14071412860180299</v>
+        <v>0.99163026531831999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>0.87360603560061301</v>
       </c>
       <c r="C22">
-        <v>0.12639396439938699</v>
+        <v>0.99473851730526197</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>0.80674776222171196</v>
       </c>
       <c r="C23">
-        <v>0.19325223777828701</v>
+        <v>0.99879030619800901</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>0.85047382320956899</v>
       </c>
       <c r="C24">
-        <v>0.14952617679043001</v>
+        <v>0.99842608497990104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>0.85665294924554103</v>
       </c>
       <c r="C25">
-        <v>0.143347050754458</v>
+        <v>0.99891578507441903</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>0.87201296071283896</v>
       </c>
       <c r="C26">
-        <v>0.12798703928715999</v>
+        <v>0.99810332527101497</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>0.83626708624250101</v>
       </c>
       <c r="C27">
-        <v>0.16373291375749799</v>
+        <v>0.99645743414741506</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>0.88705349851846604</v>
       </c>
       <c r="C28">
-        <v>0.112946501481533</v>
+        <v>0.99633145335962303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>0.88237486236978002</v>
       </c>
       <c r="C29">
-        <v>0.11762513763021901</v>
+        <v>0.99643841959065504</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>0.88914753945714398</v>
       </c>
       <c r="C30">
-        <v>0.110852460542855</v>
+        <v>0.99699597092848602</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>0.89193098825106698</v>
       </c>
       <c r="C31">
-        <v>0.10806901174893201</v>
+        <v>0.99743608358440095</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>0.89944547802684105</v>
       </c>
       <c r="C32">
-        <v>0.10055452197315801</v>
+        <v>0.99723180797596001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,7 +1237,7 @@
         <v>0.88163139550557401</v>
       </c>
       <c r="C33">
-        <v>0.118368604494425</v>
+        <v>0.99783052925062299</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,7 +1248,7 @@
         <v>0.853187306936253</v>
       </c>
       <c r="C34">
-        <v>0.146812693063746</v>
+        <v>0.99506855524079296</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>0.85640151982156598</v>
       </c>
       <c r="C35">
-        <v>0.14359848017843299</v>
+        <v>0.99583134333677803</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>0.83345515144427496</v>
       </c>
       <c r="C36">
-        <v>0.16654484855572399</v>
+        <v>0.99783948227425701</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>0.86302043324627398</v>
       </c>
       <c r="C37">
-        <v>0.136979566753725</v>
+        <v>0.99424152565838797</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>0.83062825657303696</v>
       </c>
       <c r="C38">
-        <v>0.16937174342696201</v>
+        <v>0.99475710176779997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>0.856641766807405</v>
       </c>
       <c r="C39">
-        <v>0.143358233192595</v>
+        <v>0.99563489834247598</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>0.82203652120086601</v>
       </c>
       <c r="C40">
-        <v>0.17796347879913299</v>
+        <v>0.99749049429657799</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>0.86889276649746106</v>
       </c>
       <c r="C41">
-        <v>0.131107233502538</v>
+        <v>0.99810448122432704</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>0.84980314960629899</v>
       </c>
       <c r="C42">
-        <v>0.15019685039370001</v>
+        <v>0.99755325155683505</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>0.79975892722615605</v>
       </c>
       <c r="C43">
-        <v>0.20024107277384301</v>
+        <v>0.99882098403803099</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>0.810522044901271</v>
       </c>
       <c r="C44">
-        <v>0.189477955098728</v>
+        <v>0.99886257031181502</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>0.33768825984394801</v>
       </c>
       <c r="C45">
-        <v>0.66231174015605099</v>
+        <v>0.99988110118289297</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>0.846946555498167</v>
       </c>
       <c r="C46">
-        <v>0.153053444501832</v>
+        <v>0.99692721270810303</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>0.86273115220483598</v>
       </c>
       <c r="C47">
-        <v>0.13726884779516299</v>
+        <v>0.99600433126782295</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>0.87222750713463104</v>
       </c>
       <c r="C48">
-        <v>0.12777249286536799</v>
+        <v>0.995605526924357</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>0.85779242449524395</v>
       </c>
       <c r="C49">
-        <v>0.14220757550475499</v>
+        <v>0.99646247088582196</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>0.89251021933101804</v>
       </c>
       <c r="C50">
-        <v>0.107489780668981</v>
+        <v>0.99769488485706004</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1435,7 +1435,7 @@
         <v>0.86596634370219205</v>
       </c>
       <c r="C51">
-        <v>0.134033656297807</v>
+        <v>0.99792098921259997</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>0.81519630184256697</v>
       </c>
       <c r="C52">
-        <v>0.184803698157432</v>
+        <v>0.99288141645654404</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>0.83222041116777901</v>
       </c>
       <c r="C53">
-        <v>0.16777958883221999</v>
+        <v>0.99855148107977199</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>0.53583427949116003</v>
       </c>
       <c r="C54">
-        <v>0.46416572050883897</v>
+        <v>0.996239638200348</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>0.85145202412785204</v>
       </c>
       <c r="C55">
-        <v>0.14854797587214699</v>
+        <v>0.99573270994838103</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>0.56986623548434501</v>
       </c>
       <c r="C56">
-        <v>0.43013376451565399</v>
+        <v>0.99851409504118305</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>0.85165218604975701</v>
       </c>
       <c r="C57">
-        <v>0.14834781395024199</v>
+        <v>0.99107817976720003</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>1.44946149753224E-3</v>
       </c>
       <c r="C58">
-        <v>0.998550538502467</v>
+        <v>0.99999899837068296</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>0.29980344548502702</v>
       </c>
       <c r="C59">
-        <v>0.70019655451497198</v>
+        <v>0.99990360680649304</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>0.82621767889356501</v>
       </c>
       <c r="C60">
-        <v>0.17378232110643399</v>
+        <v>0.99802029673877901</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,7 +1556,7 @@
         <v>0.91655698868123103</v>
       </c>
       <c r="C62">
-        <v>8.3443011318767996E-2</v>
+        <v>0.99861471589913997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>0.88232647654277696</v>
       </c>
       <c r="C63">
-        <v>0.117673523457222</v>
+        <v>0.99711800991000099</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>0.580453548727343</v>
       </c>
       <c r="C64">
-        <v>0.419546451272656</v>
+        <v>0.99858925814111799</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,7 +1589,7 @@
         <v>0.833559671899614</v>
       </c>
       <c r="C65">
-        <v>0.166440328100385</v>
+        <v>0.99806577265155905</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>0.75648145209913298</v>
       </c>
       <c r="C66">
-        <v>0.24351854790086599</v>
+        <v>0.99920083962787298</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>0.84888019495051603</v>
       </c>
       <c r="C67">
-        <v>0.151119805049483</v>
+        <v>0.99643582227559302</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>0.86982859194112805</v>
       </c>
       <c r="C68">
-        <v>0.13017140805887101</v>
+        <v>0.99819173599467903</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,7 +1633,7 @@
         <v>0.860348267284057</v>
       </c>
       <c r="C69">
-        <v>0.139651732715942</v>
+        <v>0.99387441766346196</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,7 +1644,7 @@
         <v>0.85139372321146001</v>
       </c>
       <c r="C70">
-        <v>0.14860627678853899</v>
+        <v>0.99501979250261097</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>0.853690672256325</v>
       </c>
       <c r="C71">
-        <v>0.146309327743674</v>
+        <v>0.99569941342801704</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>0.45772978667368902</v>
       </c>
       <c r="C72">
-        <v>0.54227021332630998</v>
+        <v>0.99627381795242298</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>0.46432610744580499</v>
       </c>
       <c r="C73">
-        <v>0.53567389255419395</v>
+        <v>0.998325827004518</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>0.83647515709118703</v>
       </c>
       <c r="C74">
-        <v>0.163524842908812</v>
+        <v>0.98982130274023505</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>0.89715233619021195</v>
       </c>
       <c r="C75">
-        <v>0.10284766380978699</v>
+        <v>0.99818216216859801</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>0.81842617152961905</v>
       </c>
       <c r="C76">
-        <v>0.18157382847038001</v>
+        <v>0.99890180764365399</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>0.87105771293713796</v>
       </c>
       <c r="C77">
-        <v>0.12894228706286201</v>
+        <v>0.99816415827754601</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,7 +1732,7 @@
         <v>0.85104566794707603</v>
       </c>
       <c r="C78">
-        <v>0.14895433205292299</v>
+        <v>0.99942252631385697</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>0.84092518291243801</v>
       </c>
       <c r="C79">
-        <v>0.15907481708756099</v>
+        <v>0.99838975948542596</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>0.80059254382355305</v>
       </c>
       <c r="C80">
-        <v>0.19940745617644601</v>
+        <v>0.99930431978404</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>0.88065455117614599</v>
       </c>
       <c r="C81">
-        <v>0.11934544882385301</v>
+        <v>0.99711216927324997</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1776,7 +1776,7 @@
         <v>0.83424187361195201</v>
       </c>
       <c r="C82">
-        <v>0.16575812638804699</v>
+        <v>0.99785284903903104</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,7 +1787,7 @@
         <v>0.86260134971112301</v>
       </c>
       <c r="C83">
-        <v>0.13739865028887699</v>
+        <v>0.99501996720915498</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>0.90002999850007503</v>
       </c>
       <c r="C84">
-        <v>9.9970001499924993E-2</v>
+        <v>0.99713587680865801</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>0.60572408811845402</v>
       </c>
       <c r="C85">
-        <v>0.39427591188154498</v>
+        <v>0.99864249287154305</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>0.65864368189949496</v>
       </c>
       <c r="C86">
-        <v>0.34135631810050399</v>
+        <v>0.99813318700715903</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>0.82394676369207198</v>
       </c>
       <c r="C87">
-        <v>0.17605323630792799</v>
+        <v>0.99415958795822001</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>0.83302849169385096</v>
       </c>
       <c r="C88">
-        <v>0.16697150830614901</v>
+        <v>0.988913517511671</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1853,7 +1853,7 @@
         <v>0.86103586051632197</v>
       </c>
       <c r="C89">
-        <v>0.138964139483677</v>
+        <v>0.99584171766235396</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1864,7 +1864,7 @@
         <v>0.82100399899752596</v>
       </c>
       <c r="C90">
-        <v>0.17899600100247301</v>
+        <v>0.99531009201742004</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>0.829773342038988</v>
       </c>
       <c r="C91">
-        <v>0.170226657961011</v>
+        <v>0.99332751509639905</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="C92">
-        <v>0.14099999999999999</v>
+        <v>0.99800664300456898</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1897,7 @@
         <v>0.85882902886525603</v>
       </c>
       <c r="C93">
-        <v>0.141170971134743</v>
+        <v>0.99890606718028296</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>0.80358422939068097</v>
       </c>
       <c r="C94">
-        <v>0.196415770609319</v>
+        <v>0.99887425050221501</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>0.808370561956266</v>
       </c>
       <c r="C95">
-        <v>0.191629438043733</v>
+        <v>0.99871820732596195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>0.89560439560439498</v>
       </c>
       <c r="C96">
-        <v>0.104395604395604</v>
+        <v>0.99835577092390104</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>1.0801828001661799E-3</v>
       </c>
       <c r="C97">
-        <v>0.99891981719983303</v>
+        <v>0.99999933860377899</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1952,7 @@
         <v>0.88078219824679704</v>
       </c>
       <c r="C98">
-        <v>0.119217801753202</v>
+        <v>0.99771659164985205</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +1963,7 @@
         <v>0.50192532341106699</v>
       </c>
       <c r="C99">
-        <v>0.49807467658893201</v>
+        <v>0.99900847014929495</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>0.758729916421783</v>
       </c>
       <c r="C100">
-        <v>0.241270083578216</v>
+        <v>0.99795314105324695</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>0.74965880288555198</v>
       </c>
       <c r="C101">
-        <v>0.25034119711444702</v>
+        <v>0.98608399020137705</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>0.85442884801548802</v>
       </c>
       <c r="C102">
-        <v>0.14557115198451101</v>
+        <v>0.99728565941857705</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
         <v>0.84944511298301895</v>
       </c>
       <c r="C103">
-        <v>0.15055488701698</v>
+        <v>0.99484496851676096</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>0.73458755426917499</v>
       </c>
       <c r="C104">
-        <v>0.26541244573082401</v>
+        <v>0.99863543343588701</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,7 +2029,7 @@
         <v>0.78289979990764902</v>
       </c>
       <c r="C105">
-        <v>0.21710020009235001</v>
+        <v>0.99624269993358106</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2040,7 +2040,7 @@
         <v>0.48688366982557302</v>
       </c>
       <c r="C106">
-        <v>0.51311633017442604</v>
+        <v>0.99787779777083097</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +2051,7 @@
         <v>0.86155747836835594</v>
       </c>
       <c r="C107">
-        <v>0.138442521631644</v>
+        <v>0.99882467785326701</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>0.83604777415852305</v>
       </c>
       <c r="C108">
-        <v>0.16395222584147601</v>
+        <v>0.999209274030188</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2073,7 +2073,7 @@
         <v>0.86986986986986903</v>
       </c>
       <c r="C109">
-        <v>0.13013013013013</v>
+        <v>0.99882457783583001</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2084,7 +2084,7 @@
         <v>0.87096774193548299</v>
       </c>
       <c r="C110">
-        <v>0.12903225806451599</v>
+        <v>0.99962736858796397</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>0.72663551401869098</v>
       </c>
       <c r="C111">
-        <v>0.27336448598130803</v>
+        <v>0.99916003767721695</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2106,7 +2106,7 @@
         <v>0.89791216702663701</v>
       </c>
       <c r="C112">
-        <v>0.10208783297336201</v>
+        <v>0.99697329124164402</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2117,7 +2117,7 @@
         <v>0.86067653276955602</v>
       </c>
       <c r="C113">
-        <v>0.139323467230443</v>
+        <v>0.99876650437859005</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
         <v>0.84800362976406496</v>
       </c>
       <c r="C114">
-        <v>0.15199637023593399</v>
+        <v>0.99797116606131397</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>0.86663059651021201</v>
       </c>
       <c r="C115">
-        <v>0.13336940348978699</v>
+        <v>0.99699252145689299</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>0.8911677141912</v>
       </c>
       <c r="C116">
-        <v>0.108832285808799</v>
+        <v>0.99750505702417402</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
         <v>0.84325015994881602</v>
       </c>
       <c r="C117">
-        <v>0.156749840051183</v>
+        <v>0.99721595103129301</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,7 +2172,7 @@
         <v>0.64920486435921398</v>
       </c>
       <c r="C118">
-        <v>0.35079513564078502</v>
+        <v>0.99918458754525097</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,7 +2183,7 @@
         <v>0.85307017543859598</v>
       </c>
       <c r="C119">
-        <v>0.14692982456140299</v>
+        <v>0.99946678305945003</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>0.782901191310441</v>
       </c>
       <c r="C120">
-        <v>0.217098808689558</v>
+        <v>0.99448144923433601</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>0.82047514082782202</v>
       </c>
       <c r="C121">
-        <v>0.179524859172177</v>
+        <v>0.99906294000159401</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,7 +2216,7 @@
         <v>0.78378378378378299</v>
       </c>
       <c r="C122">
-        <v>0.21621621621621601</v>
+        <v>0.99924593992511102</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>0.85312117503059903</v>
       </c>
       <c r="C123">
-        <v>0.1468788249694</v>
+        <v>0.99844097572104795</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>0.87837837837837796</v>
       </c>
       <c r="C124">
-        <v>0.121621621621621</v>
+        <v>0.99945031750996804</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,7 +2249,7 @@
         <v>0.85685685685685598</v>
       </c>
       <c r="C125">
-        <v>0.143143143143143</v>
+        <v>0.99886054000495395</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
         <v>0.86672603146334204</v>
       </c>
       <c r="C126">
-        <v>0.13327396853665699</v>
+        <v>0.99840283396121798</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>0.89270084401375405</v>
       </c>
       <c r="C127">
-        <v>0.107299155986245</v>
+        <v>0.99747738299914102</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>0.87485470747772098</v>
       </c>
       <c r="C128">
-        <v>0.12514529252227799</v>
+        <v>0.99890149206406997</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>0.888486945580371</v>
       </c>
       <c r="C129">
-        <v>0.111513054419628</v>
+        <v>0.99931120443105403</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>0.88726571113561103</v>
       </c>
       <c r="C130">
-        <v>0.11273428886438799</v>
+        <v>0.99771309154066501</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>0.87355284919560905</v>
       </c>
       <c r="C131">
-        <v>0.12644715080439001</v>
+        <v>0.99851197797596203</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>0.84896467722289803</v>
       </c>
       <c r="C132">
-        <v>0.15103532277710099</v>
+        <v>0.99898439999871502</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
         <v>0.83925168889658697</v>
       </c>
       <c r="C133">
-        <v>0.16074831110341201</v>
+        <v>0.99697118021564501</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>0.84445127574546497</v>
       </c>
       <c r="C134">
-        <v>0.155548724254534</v>
+        <v>0.99892551803940299</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>0.87</v>
       </c>
       <c r="C135">
-        <v>0.13</v>
+        <v>0.99798466669802299</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>0.77802835051546304</v>
       </c>
       <c r="C136">
-        <v>0.22197164948453599</v>
+        <v>0.99854565493447001</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,7 +2381,7 @@
         <v>0.82334696179331701</v>
       </c>
       <c r="C137">
-        <v>0.17665303820668199</v>
+        <v>0.99750165306720595</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,7 +2392,7 @@
         <v>0.72509960159362497</v>
       </c>
       <c r="C138">
-        <v>0.27490039840637398</v>
+        <v>0.99918004160529605</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>0.83830845771144202</v>
       </c>
       <c r="C139">
-        <v>0.16169154228855701</v>
+        <v>0.999405636141252</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>0.81672394043527996</v>
       </c>
       <c r="C140">
-        <v>0.18327605956471901</v>
+        <v>0.99888077698399202</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>0.69831730769230704</v>
       </c>
       <c r="C141">
-        <v>0.30168269230769201</v>
+        <v>0.99915375631831504</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
         <v>0.82430453879941401</v>
       </c>
       <c r="C142">
-        <v>0.17569546120058499</v>
+        <v>0.99845272773784599</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>0.70303030303030301</v>
       </c>
       <c r="C143">
-        <v>0.29696969696969699</v>
+        <v>0.999603342097099</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>0.89355828220858802</v>
       </c>
       <c r="C144">
-        <v>0.106441717791411</v>
+        <v>0.99836952529700296</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,7 +2469,7 @@
         <v>0.80529100529100495</v>
       </c>
       <c r="C145">
-        <v>0.194708994708994</v>
+        <v>0.99693371496585104</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,7 +2480,7 @@
         <v>0.85311171240819395</v>
       </c>
       <c r="C146">
-        <v>0.146888287591805</v>
+        <v>0.99664983586717104</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>0.837156825874388</v>
       </c>
       <c r="C147">
-        <v>0.162843174125611</v>
+        <v>0.99637424945677999</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>0.54443331425300501</v>
       </c>
       <c r="C148">
-        <v>0.45556668574699399</v>
+        <v>0.99925037571602904</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,7 +2513,7 @@
         <v>0.88589180178814897</v>
       </c>
       <c r="C149">
-        <v>0.11410819821185</v>
+        <v>0.99844479288769805</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>0.80323355556155296</v>
       </c>
       <c r="C150">
-        <v>0.19676644443844599</v>
+        <v>0.99255452026899005</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
         <v>0.3352</v>
       </c>
       <c r="C151">
-        <v>0.66479999999999995</v>
+        <v>0.99973326238522098</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>0.79363462762571602</v>
       </c>
       <c r="C152">
-        <v>0.20636537237428301</v>
+        <v>0.99419247612276196</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>0.76699029126213503</v>
       </c>
       <c r="C153">
-        <v>0.233009708737864</v>
+        <v>0.99742438867033401</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,7 +2568,7 @@
         <v>0.31946499013806701</v>
       </c>
       <c r="C154">
-        <v>0.68053500986193205</v>
+        <v>0.999611076055545</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,7 +2579,7 @@
         <v>0.86394603037452999</v>
       </c>
       <c r="C155">
-        <v>0.13605396962546901</v>
+        <v>0.99465341485435099</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>0.47748976807639798</v>
       </c>
       <c r="C156">
-        <v>0.52251023192360102</v>
+        <v>0.99992700022882597</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>0.311096286413164</v>
       </c>
       <c r="C157">
-        <v>0.688903713586835</v>
+        <v>0.99991249264695103</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>0.74087591240875905</v>
       </c>
       <c r="C158">
-        <v>0.25912408759124</v>
+        <v>0.999222444458571</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>0.20283018867924499</v>
       </c>
       <c r="C159">
-        <v>0.79716981132075404</v>
+        <v>0.99995634490435803</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2634,7 +2634,7 @@
         <v>0.71957671957671898</v>
       </c>
       <c r="C160">
-        <v>0.28042328042328002</v>
+        <v>0.99970095122959901</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>0.86829268292682904</v>
       </c>
       <c r="C161">
-        <v>0.13170731707316999</v>
+        <v>0.99802845055381295</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,7 +2656,7 @@
         <v>0.84117125110913904</v>
       </c>
       <c r="C162">
-        <v>0.15882874889085999</v>
+        <v>0.997717893915118</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>0.85105778787448505</v>
       </c>
       <c r="C163">
-        <v>0.14894221212551401</v>
+        <v>0.99834048008299703</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
         <v>0.87385994744164397</v>
       </c>
       <c r="C164">
-        <v>0.126140052558355</v>
+        <v>0.99852888733039102</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,7 +2689,7 @@
         <v>0.876060683980457</v>
       </c>
       <c r="C165">
-        <v>0.123939316019542</v>
+        <v>0.99765472134225197</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>0.87446937537901703</v>
       </c>
       <c r="C166">
-        <v>0.125530624620982</v>
+        <v>0.99935301064626103</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,7 +2711,7 @@
         <v>0.258739896776706</v>
       </c>
       <c r="C167">
-        <v>0.74126010322329305</v>
+        <v>0.99927717288388795</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,7 +2722,7 @@
         <v>0.29350843476403998</v>
       </c>
       <c r="C168">
-        <v>0.70649156523595902</v>
+        <v>0.99960274531363602</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>0.57942083618916995</v>
       </c>
       <c r="C169">
-        <v>0.42057916381082899</v>
+        <v>0.99836326630667604</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>0.80083819241982501</v>
       </c>
       <c r="C170">
-        <v>0.19916180758017399</v>
+        <v>0.99773479685328303</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>0.189740624483727</v>
       </c>
       <c r="C171">
-        <v>0.81025937551627203</v>
+        <v>0.99969033458079404</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>0.81085890270331895</v>
       </c>
       <c r="C172">
-        <v>0.18914109729667999</v>
+        <v>0.99485870545125399</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,7 +2777,7 @@
         <v>0.86391437308868502</v>
       </c>
       <c r="C173">
-        <v>0.13608562691131401</v>
+        <v>0.999311191578236</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>0.85189437428243397</v>
       </c>
       <c r="C174">
-        <v>0.148105625717566</v>
+        <v>0.99944621314088999</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>0.762645914396887</v>
       </c>
       <c r="C175">
-        <v>0.237354085603112</v>
+        <v>0.99965300854933503</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,7 +2810,7 @@
         <v>0.52313167259786397</v>
       </c>
       <c r="C176">
-        <v>0.47686832740213497</v>
+        <v>0.99977265339789201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,7 +2821,7 @@
         <v>0.81524926686217003</v>
       </c>
       <c r="C177">
-        <v>0.184750733137829</v>
+        <v>0.99938941823498995</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,7 +2832,7 @@
         <v>0.24465811965811901</v>
       </c>
       <c r="C178">
-        <v>0.75534188034187999</v>
+        <v>0.99993995983741901</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>0.105734887795673</v>
       </c>
       <c r="C179">
-        <v>0.89426511220432603</v>
+        <v>0.99981130313055</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,7 +2854,7 @@
         <v>0.65434830714759895</v>
       </c>
       <c r="C180">
-        <v>0.34565169285240099</v>
+        <v>0.999665176321479</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,7 +2865,7 @@
         <v>0.44581316908637603</v>
       </c>
       <c r="C181">
-        <v>0.55418683091362297</v>
+        <v>0.99962963981024799</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +2876,7 @@
         <v>0.85048788164935396</v>
       </c>
       <c r="C182">
-        <v>0.14951211835064501</v>
+        <v>0.99876627754928604</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,7 +2887,7 @@
         <v>0.72977481234361896</v>
       </c>
       <c r="C183">
-        <v>0.27022518765637998</v>
+        <v>0.99981414942386304</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
         <v>0.44303455723542101</v>
       </c>
       <c r="C184">
-        <v>0.55696544276457804</v>
+        <v>0.99974573148428902</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,7 +2909,7 @@
         <v>0.79779608430512405</v>
       </c>
       <c r="C185">
-        <v>0.202203915694875</v>
+        <v>0.98866528407938203</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>0.38094510156115602</v>
       </c>
       <c r="C186">
-        <v>0.61905489843884298</v>
+        <v>0.99800781673053895</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,7 +2931,7 @@
         <v>0.74812395162002299</v>
       </c>
       <c r="C187">
-        <v>0.25187604837997701</v>
+        <v>0.99496343681235699</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,7 +2942,7 @@
         <v>5.9904354392146903E-3</v>
       </c>
       <c r="C188">
-        <v>0.99400956456078504</v>
+        <v>0.99998692207236495</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>0.85405490278177498</v>
       </c>
       <c r="C189">
-        <v>0.14594509721822399</v>
+        <v>0.99650546620734204</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,7 +2964,7 @@
         <v>0.88694758478931102</v>
       </c>
       <c r="C190">
-        <v>0.113052415210688</v>
+        <v>0.99889374585714497</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,7 +2975,7 @@
         <v>0.70165745856353501</v>
       </c>
       <c r="C191">
-        <v>0.29834254143646399</v>
+        <v>0.99979441657646895</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>0.83616917841516702</v>
       </c>
       <c r="C192">
-        <v>0.163830821584832</v>
+        <v>0.99940287017865204</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
         <v>0.838095238095238</v>
       </c>
       <c r="C193">
-        <v>0.161904761904761</v>
+        <v>0.99759359945105397</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>0.87203791469194303</v>
       </c>
       <c r="C194">
-        <v>0.127962085308056</v>
+        <v>0.99933902326608404</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,7 +3019,7 @@
         <v>5.10204081632653E-2</v>
       </c>
       <c r="C195">
-        <v>0.94897959183673397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>0.75433321542270904</v>
       </c>
       <c r="C196">
-        <v>0.24566678457728999</v>
+        <v>0.99889826530660297</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,7 +3041,7 @@
         <v>0.29072605247101801</v>
       </c>
       <c r="C197">
-        <v>0.70927394752898099</v>
+        <v>0.99992732699704601</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,7 +3052,7 @@
         <v>0.84019574755315496</v>
       </c>
       <c r="C198">
-        <v>0.15980425244684399</v>
+        <v>0.99798760886386795</v>
       </c>
     </row>
   </sheetData>
